--- a/datasetCovid2021.xlsx
+++ b/datasetCovid2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistema\Desktop\Emi\Universita\terzo anno\Secondo_Semestre\Big Data\file vari per esercizi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D657AA2-A771-4D90-9179-01CA7DBF7996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C54D3F-A0C0-4B36-9478-78F45BB8FB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE5C3317-391C-4461-855D-30DE79C7C4A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE5C3317-391C-4461-855D-30DE79C7C4A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -2819,11 +2819,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD544DF-5D96-4539-87A7-F63DB2C33713}">
   <dimension ref="A1:A810"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6877,5 +6880,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>